--- a/biology/Botanique/Banksia_benthamiana/Banksia_benthamiana.xlsx
+++ b/biology/Botanique/Banksia_benthamiana/Banksia_benthamiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia benthamiana est une espèce d'arbuste buissonnant du genre Banksia de la famille des Proteaceae. Il forme de petits buissons de 1,8 à 4 m à l'écorce grise et aux feuilles finement dentées. On le trouve en populations dispersées dans la région de Wheatbelt en Australie Occidentale, près de Mullewa et de Dalwallinu.
 Sur les autres projets Wikimedia :
